--- a/Datasets/Example.xlsx
+++ b/Datasets/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\SuspiciousReturns\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C145B2BD-E9BC-411F-9F05-25B49914BC14}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{49043391-7DDD-450C-A388-825F0E12A64B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="10800" tabRatio="602" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,13 +699,13 @@
     <t>CRESPR</t>
   </si>
   <si>
-    <t>TMR10Y</t>
-  </si>
-  <si>
     <t>BM</t>
   </si>
   <si>
     <t>RF</t>
+  </si>
+  <si>
+    <t>TBR10Y</t>
   </si>
 </sst>
 </file>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -5766,9 +5766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E6E15-8337-4F3D-A09B-9BA4E46F98F6}">
   <dimension ref="A1:R206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5829,7 +5829,7 @@
         <v>217</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>223</v>

--- a/Datasets/Example.xlsx
+++ b/Datasets/Example.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\HFMRD-master\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6690F1-C7E1-4C1B-8BA3-9C718099F73B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA4A1CE-2314-44C9-874F-A49750002848}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Returns" sheetId="4" r:id="rId1"/>
     <sheet name="Style Factors" sheetId="5" r:id="rId2"/>
+    <sheet name="Groups" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Returns!$A$1:$F$1</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -1238,7 +1239,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1253,6 +1254,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17258,4 +17263,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97072B94-47AC-4D46-9AC8-ACCC4149F62B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="20.7109375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>